--- a/upload/estrutura_governamental.xlsx
+++ b/upload/estrutura_governamental.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="430">
   <si>
     <t>orgao</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Agência Reguladora de Serviços de Abastecimento de Água e de Esgotamento Sanitário de Minas Gerais</t>
   </si>
   <si>
-    <t>ARASAE</t>
-  </si>
-  <si>
     <t>Autarquia</t>
   </si>
   <si>
@@ -265,16 +262,9 @@
     <t>FCS</t>
   </si>
   <si>
-    <t>Fundação Instituto Estadual do Patrimônio Histórico e Artístico de Minas
-Gerais</t>
-  </si>
-  <si>
     <t>IEPHA</t>
   </si>
   <si>
-    <t>Advocacia-Geral do Estado</t>
-  </si>
-  <si>
     <t>AGE</t>
   </si>
   <si>
@@ -287,9 +277,6 @@
     <t>CBMMG</t>
   </si>
   <si>
-    <t>Controladoria-Geral do Estado</t>
-  </si>
-  <si>
     <t>CGE</t>
   </si>
   <si>
@@ -383,9 +370,6 @@
     <t>SES</t>
   </si>
   <si>
-    <t>Secretaria- Geral</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -395,9 +379,6 @@
     <t>FAPEMIG</t>
   </si>
   <si>
-    <t xml:space="preserve">Fundação Estadual do Meio Ambiente </t>
-  </si>
-  <si>
     <t>FEAM</t>
   </si>
   <si>
@@ -632,42 +613,9 @@
     <t>https://www.almg.gov.br/legislacao-mineira/LEI/9678/1988/</t>
   </si>
   <si>
-    <t>www.bombeiros.mg.gov.br</t>
-  </si>
-  <si>
-    <t>www.cge.mg.gov.br</t>
-  </si>
-  <si>
     <t>https://www.policiamilitar.mg.gov.br/</t>
   </si>
   <si>
-    <t>www.casacivil.mg.gov.br</t>
-  </si>
-  <si>
-    <t>www.agricultura.mg.gov.br</t>
-  </si>
-  <si>
-    <t>www.emater.mg.gov.br</t>
-  </si>
-  <si>
-    <t>www.faop.mg.gov.br</t>
-  </si>
-  <si>
-    <t>www.fcs.mg.gov.br</t>
-  </si>
-  <si>
-    <t>www.iepha.mg.gov.br</t>
-  </si>
-  <si>
-    <t>www.ima.mg.gov.br</t>
-  </si>
-  <si>
-    <t>www.epamig.br</t>
-  </si>
-  <si>
-    <t>www.cultura.mg.gov.br</t>
-  </si>
-  <si>
     <t>endereco</t>
   </si>
   <si>
@@ -683,18 +631,12 @@
     <t>http://www.unimontes.br</t>
   </si>
   <si>
-    <t>(38) 3229 8101</t>
-  </si>
-  <si>
     <t>Avenida Rui Braga, S/Nº, Campus Universitário, Vila Mauricéia, Montes Claros, 39401-089</t>
   </si>
   <si>
     <t>http://www.uemg.br</t>
   </si>
   <si>
-    <t>(31) 3916 0471</t>
-  </si>
-  <si>
     <t>Lavínia Rosa Rodrigues</t>
   </si>
   <si>
@@ -704,9 +646,6 @@
     <t>Onésimo Diniz Moreira</t>
   </si>
   <si>
-    <t>(31) 3916 8813</t>
-  </si>
-  <si>
     <t>http://www.jucemg.mg.gov.br</t>
   </si>
   <si>
@@ -728,9 +667,6 @@
     <t>Marcelo da Fonseca</t>
   </si>
   <si>
-    <t>(31) 3915 1752</t>
-  </si>
-  <si>
     <t>1º andar do Edifício Minas - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
@@ -746,50 +682,21 @@
     <t>10º andar do Edificio Gerais - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3915 8682</t>
-  </si>
-  <si>
     <t>http://www.ief.mg.gov.br</t>
   </si>
   <si>
-    <t>Breno Esteves Lasmar</t>
-  </si>
-  <si>
-    <t>(31) 3915 1507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1º andar do Edifício Minas - Cidade Administrativa, Belo Horizonte</t>
-  </si>
-  <si>
-    <t>Rodrigo de Faria Mendes</t>
-  </si>
-  <si>
-    <t>(31) 3915 8050</t>
-  </si>
-  <si>
     <t>6º andar do Edifício Minas - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
     <t>André Luiz Moreira dos Anjos</t>
   </si>
   <si>
-    <t xml:space="preserve">
-4º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
-  </si>
-  <si>
-    <t>(31) 3915-2617</t>
-  </si>
-  <si>
     <t>Francisco José da Fonseca</t>
   </si>
   <si>
     <t>Rua Cristiano França Teixeira Guimarães, 80, Cinco, Contagem, 32010-130</t>
   </si>
   <si>
-    <t>(31) 3399 7100</t>
-  </si>
-  <si>
     <t>http://www.idene.mg.gov.br</t>
   </si>
   <si>
@@ -799,9 +706,6 @@
     <t>8º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3915-5209</t>
-  </si>
-  <si>
     <t>http://www.der.mg.gov.br</t>
   </si>
   <si>
@@ -823,15 +727,9 @@
     <t>http://www.hemominas.mg.gov.br</t>
   </si>
   <si>
-    <t>Rodrigo Rodrigues Tavares</t>
-  </si>
-  <si>
     <t>5º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3501-3000</t>
-  </si>
-  <si>
     <t>http://www.arsae.mg.gov.br</t>
   </si>
   <si>
@@ -841,78 +739,36 @@
     <t>2º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3915 8119</t>
-  </si>
-  <si>
     <t>http://www.agenciarmva.mg.gov.br</t>
   </si>
   <si>
     <t>Christie Garcia Martins</t>
   </si>
   <si>
-    <t>(31) 2109-9350</t>
-  </si>
-  <si>
     <t>Av. Zita Soares de Oliveira, 212, 3º andar, Centro, Ipatinga, 35160-007</t>
   </si>
   <si>
-    <t>Marcos Vinicius Mota de Meira Lopes</t>
-  </si>
-  <si>
-    <t>http://www.metropolitana.mg.gov.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(31) 3915 6983 </t>
-  </si>
-  <si>
-    <t>http://bdmg.mg.gov.br</t>
-  </si>
-  <si>
-    <t>(31) 3219 8000</t>
-  </si>
-  <si>
     <t>Rua da Bahia, 1600, Lourdes, Belo Horizonte, 30160-907</t>
   </si>
   <si>
-    <t>(31) 3915 4878</t>
-  </si>
-  <si>
-    <t>http://www.mgipart.com.br</t>
-  </si>
-  <si>
     <t>http://www.mgs.srv.br</t>
   </si>
   <si>
-    <t>(31) 3239 8400</t>
-  </si>
-  <si>
     <t>Avenida Álvares Cabral, 200, 2º, 12º, 13º, 14º e 16º andares, Funcionários, Belo Horizonte, 30170-000</t>
   </si>
   <si>
     <t>https://www.investminas.mg.gov.br</t>
   </si>
   <si>
-    <t>(31) 3916-7650</t>
-  </si>
-  <si>
     <t>http://www.inconfidencia.com.br</t>
   </si>
   <si>
-    <t>(31) 3298 3400</t>
-  </si>
-  <si>
     <t>Rua Tenente Brito Melo, 1090, BL 01, 2º e 3º andares, Barro Preto, Belo Horizonte, 30180-074</t>
   </si>
   <si>
     <t>Avenida Jose Cândido da Silveira, 1647, Cidade Nova, Belo Horizonte, 31170-000</t>
   </si>
   <si>
-    <t>(31) 3489 5000</t>
-  </si>
-  <si>
-    <t>(31) 3349 8000</t>
-  </si>
-  <si>
     <t>Avenida Raja Gabaglia, 1626, Gutierrez, Belo Horizonte, 30440-452</t>
   </si>
   <si>
@@ -925,160 +781,87 @@
     <t>http://www.codemge.com.br</t>
   </si>
   <si>
-    <t>(31) 3506 3711</t>
-  </si>
-  <si>
     <t>Avenida Barbacena, 1200, Santo Agostinho, Belo Horizonte, 30190-131</t>
   </si>
   <si>
     <t>https://www.prodemge.gov.br</t>
   </si>
   <si>
-    <t>(31) 3339-1100</t>
-  </si>
-  <si>
     <t>Rua da Bahia, 2.277, Savassi, Belo Horizonte, 30160-019</t>
   </si>
   <si>
-    <t>(31) 3348 9600</t>
-  </si>
-  <si>
     <t>Rua Mar de Espanha, 525, Santo Antônio, Belo Horizonte, 30270-130</t>
   </si>
   <si>
     <t>http://www.cohab.mg.gov.br</t>
   </si>
   <si>
-    <t>(31) 3915 7030</t>
-  </si>
-  <si>
     <t>14º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
     <t>6º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3916-8100</t>
-  </si>
-  <si>
-    <t>Júnia Guimarães Mourão Cioffi</t>
-  </si>
-  <si>
     <t>Rua Grão Pará, 882, Administração Central, Funcionários, Belo Horizonte, 30150-341</t>
   </si>
   <si>
-    <t>(31) 3768-7450</t>
-  </si>
-  <si>
-    <t>João Paulo Martins</t>
-  </si>
-  <si>
     <t>Praça da Liberdade, 470, 4º andar - Prédio Verde, Funcionários, Belo Horizonte, 30140-010</t>
   </si>
   <si>
-    <t>(31) 3235 2800</t>
-  </si>
-  <si>
     <t>Alameda das Acácias, 70, Campus Pampulha, São Luiz, Belo Horizonte, 31275-150</t>
   </si>
   <si>
-    <t>(31) 3448-9400</t>
-  </si>
-  <si>
     <t>Renata Ferreira Leles Dias</t>
   </si>
   <si>
     <t>Alamêda Álvaro Celso, 100, Centro, Belo Horizonte, 30150-260</t>
   </si>
   <si>
-    <t>(31) 3239 9500</t>
-  </si>
-  <si>
     <t>Luciene Millo Campos</t>
   </si>
   <si>
     <t>Avenida São Paulo, 3996, Vila do Rosário, Ibirité, 32415-250</t>
   </si>
   <si>
-    <t>(31) 3521 9501</t>
-  </si>
-  <si>
     <t>Felipe José Fonseca Attie</t>
   </si>
   <si>
     <t>Rua Conde Pereira Carneiro, 80, Gameleira, Belo Horizonte, 30510-010</t>
   </si>
   <si>
-    <t>0800 283 1980</t>
-  </si>
-  <si>
     <t>https://feam.br/</t>
   </si>
   <si>
     <t>Edson de Resende Castro</t>
   </si>
   <si>
-    <t>(31) 3915-1700</t>
-  </si>
-  <si>
     <t>Frederico Correa Lima de Carvalho</t>
   </si>
   <si>
-    <t>(31) 3916-7819</t>
-  </si>
-  <si>
     <t>http://www.utramig.mg.gov.br</t>
   </si>
   <si>
-    <t>Paulo Henrique Azeredo Nascimento</t>
-  </si>
-  <si>
     <t>Avenida Afonso Pena, 3400, Cruzeiro, Belo Horizonte, 30130-009</t>
   </si>
   <si>
-    <t>(31) 3263 7500</t>
-  </si>
-  <si>
     <t>Rua Alvarenga, 794, Cabeças, Ouro Preto, 35400-000</t>
   </si>
   <si>
-    <t>(31) 3551 2014</t>
-  </si>
-  <si>
-    <t>www.fapemig.br</t>
-  </si>
-  <si>
-    <t>(31) 3280-2100</t>
-  </si>
-  <si>
     <t>Av. José Cândido da Silveira, 1500, Horto Florestal, Belo Horizonte, 31170-000</t>
   </si>
   <si>
     <t>Avenida Afonso Pena, 1537, Centro, Belo Horizonte, 30130-004</t>
   </si>
   <si>
-    <t>(31) 3236 7400</t>
-  </si>
-  <si>
     <t>3915 8050</t>
   </si>
   <si>
-    <t>Letícia Batista Gamboge Reis</t>
-  </si>
-  <si>
-    <t>(31) 3915 7392</t>
-  </si>
-  <si>
     <t>4º andar do Edifício Minas - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
     <t>http://www.ouvidoriageral.mg.gov.br</t>
   </si>
   <si>
-    <t xml:space="preserve">
-12º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
-  </si>
-  <si>
     <t>http://www.gabinetemilitar.mg.gov.br</t>
   </si>
   <si>
@@ -1088,42 +871,21 @@
     <t>2º andar do Palácio Tiradentes - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3915 2912</t>
-  </si>
-  <si>
     <t>Mara Guarino Tanure</t>
   </si>
   <si>
     <t>Avenida Augusto de Lima, 2061, Barro Preto, Belo Horizonte, 30190-009</t>
   </si>
   <si>
-    <t>(31) 3295-5360</t>
-  </si>
-  <si>
-    <t>Jordana de Oliveira Filgueiras Daldegan</t>
-  </si>
-  <si>
-    <t>(31) 3915-7525</t>
-  </si>
-  <si>
     <t>12º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3915-2093</t>
-  </si>
-  <si>
     <t>http://advocaciageral.mg.gov.br/</t>
   </si>
   <si>
-    <t>Sérgio Pessoa de Paulo Castro</t>
-  </si>
-  <si>
     <t>Avenida Afonso Pena, Nº 4000, Cruzeiro, Belo Horizonte, 30130-009</t>
   </si>
   <si>
-    <t>(31) 3218 - 0700</t>
-  </si>
-  <si>
     <t>http://www.saude.mg.gov.br</t>
   </si>
   <si>
@@ -1133,16 +895,9 @@
     <t>12º e 13º andar do Edifício Minas - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3916 0790</t>
-  </si>
-  <si>
     <t>http://www.planejamento.mg.gov.br</t>
   </si>
   <si>
-    <t xml:space="preserve">
-2º e 3º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
-  </si>
-  <si>
     <t>http://www.meioambiente.mg.gov.br</t>
   </si>
   <si>
@@ -1161,18 +916,12 @@
     <t>3º andar do Edifício Minas - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3915 3075</t>
-  </si>
-  <si>
     <t>7º andar do Edifício Minas - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
     <t>Pedro Bruno Barros de Souza</t>
   </si>
   <si>
-    <t>(31) 3915 8366</t>
-  </si>
-  <si>
     <t>http://www.infraestrutura.mg.gov.br/</t>
   </si>
   <si>
@@ -1182,9 +931,6 @@
     <t>1º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3915 9099</t>
-  </si>
-  <si>
     <t>http://www.fazenda.mg.gov.br</t>
   </si>
   <si>
@@ -1194,21 +940,12 @@
     <t>Luiz Claudio Fernandes Lourenço Gomes</t>
   </si>
   <si>
-    <t>(31) 3217 6161</t>
-  </si>
-  <si>
     <t>http://www.educacao.mg.gov.br</t>
   </si>
   <si>
-    <t>Igor de Alvarenga Oliveira Icassatti Rojas</t>
-  </si>
-  <si>
     <t>10º e 11º andar do Edifício Minas - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>0800-9701212</t>
-  </si>
-  <si>
     <t>http://www.social.mg.gov.br</t>
   </si>
   <si>
@@ -1218,18 +955,9 @@
     <t>14º andar do Edifício Minas - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3916 8235</t>
-  </si>
-  <si>
-    <t>Leônidas José de Oliveira</t>
-  </si>
-  <si>
     <t>11º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3915 2677</t>
-  </si>
-  <si>
     <t>https://www.comunicacao.mg.gov.br/</t>
   </si>
   <si>
@@ -1248,9 +976,6 @@
     <t>10º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
   </si>
   <si>
-    <t>(31) 3915 5233</t>
-  </si>
-  <si>
     <t>http://www.secretariageral.mg.gov.br/</t>
   </si>
   <si>
@@ -1321,12 +1046,6 @@
   </si>
   <si>
     <t>Mila Batista Leite Corrêa da Costa</t>
-  </si>
-  <si>
-    <t>(31) 3915-5028</t>
-  </si>
-  <si>
-    <t>(31) 3915-2022</t>
   </si>
   <si>
     <t xml:space="preserve">https://fucam.mg.gov.br/
@@ -1337,6 +1056,279 @@
   </si>
   <si>
     <t>https://www.policiacivil.mg.gov.br/</t>
+  </si>
+  <si>
+    <t>(31)3218 0700</t>
+  </si>
+  <si>
+    <t>(31)3219 8000</t>
+  </si>
+  <si>
+    <t>(31)2109-9350</t>
+  </si>
+  <si>
+    <t>(31)3915 8119</t>
+  </si>
+  <si>
+    <t>(31)3506 3711</t>
+  </si>
+  <si>
+    <t>(31)3915 7030</t>
+  </si>
+  <si>
+    <t>(31)3348 9600</t>
+  </si>
+  <si>
+    <t>(31)3217 6161</t>
+  </si>
+  <si>
+    <t>(31)3521 9501</t>
+  </si>
+  <si>
+    <t>(31)3239 9500</t>
+  </si>
+  <si>
+    <t>(31)3915 2912</t>
+  </si>
+  <si>
+    <t>(31)3915 9099</t>
+  </si>
+  <si>
+    <t>(31)3915-5209</t>
+  </si>
+  <si>
+    <t>(31)3915 1507</t>
+  </si>
+  <si>
+    <t>(31)3915 1752</t>
+  </si>
+  <si>
+    <t>(31)3298 3400</t>
+  </si>
+  <si>
+    <t>(31)3915 8366</t>
+  </si>
+  <si>
+    <t>(31)3399 7100</t>
+  </si>
+  <si>
+    <t>(31)3915-2617</t>
+  </si>
+  <si>
+    <t>(31)3915 8050</t>
+  </si>
+  <si>
+    <t>(31)3916 8813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(31)3915 6983 </t>
+  </si>
+  <si>
+    <t>(31)3915 4878</t>
+  </si>
+  <si>
+    <t>(31)3239 8400</t>
+  </si>
+  <si>
+    <t>(31)3916 0790</t>
+  </si>
+  <si>
+    <t>(31)3915 3075</t>
+  </si>
+  <si>
+    <t>(31)3916 8235</t>
+  </si>
+  <si>
+    <t>(31)3916 0471</t>
+  </si>
+  <si>
+    <t>(31)3263 7500</t>
+  </si>
+  <si>
+    <t>(31)3915 5233</t>
+  </si>
+  <si>
+    <t>(31)3915 2677</t>
+  </si>
+  <si>
+    <t>(31)3349 8000</t>
+  </si>
+  <si>
+    <t>(31)3489 5000</t>
+  </si>
+  <si>
+    <t>(31)3551 2014</t>
+  </si>
+  <si>
+    <t>(31)3236 7400</t>
+  </si>
+  <si>
+    <t>(31)3235 2800</t>
+  </si>
+  <si>
+    <t>(31)3915 8682</t>
+  </si>
+  <si>
+    <t>(31)3915 7392</t>
+  </si>
+  <si>
+    <t>0800 9701212</t>
+  </si>
+  <si>
+    <t>0800 2831980</t>
+  </si>
+  <si>
+    <t>(31)3916 8100</t>
+  </si>
+  <si>
+    <t>(31)3501 3000</t>
+  </si>
+  <si>
+    <t>(31)3448 9400</t>
+  </si>
+  <si>
+    <t>(31)3295 5360</t>
+  </si>
+  <si>
+    <t>(31)3768 7450</t>
+  </si>
+  <si>
+    <t>(31)3915 2022</t>
+  </si>
+  <si>
+    <t>(31)3915 1700</t>
+  </si>
+  <si>
+    <t>(38)3229 8101</t>
+  </si>
+  <si>
+    <t>(31)3916 7819</t>
+  </si>
+  <si>
+    <t>(31)3916 7650</t>
+  </si>
+  <si>
+    <t>(31)3339 1100</t>
+  </si>
+  <si>
+    <t>(31)3915 7525</t>
+  </si>
+  <si>
+    <t>(31)3915 2093</t>
+  </si>
+  <si>
+    <t>(31)3280 2100</t>
+  </si>
+  <si>
+    <t>(31)3915 5028</t>
+  </si>
+  <si>
+    <t>Advocacia Geral do Estado</t>
+  </si>
+  <si>
+    <t>Controladoria Geral do Estado</t>
+  </si>
+  <si>
+    <t>Fundação Instituto Estadual do Patrimônio Histórico e Artístico de Minas Gerais</t>
+  </si>
+  <si>
+    <t>Fundação Estadual do Meio Ambiente</t>
+  </si>
+  <si>
+    <t>4º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
+  </si>
+  <si>
+    <t>2º e 3º andar do Edifício Gerais - Cidade Administrativa, Belo Horizonte</t>
+  </si>
+  <si>
+    <t>Fábio Murilo Nazar</t>
+  </si>
+  <si>
+    <t>ARSAE</t>
+  </si>
+  <si>
+    <t>https://www.agenciarmbh.mg.gov.br/</t>
+  </si>
+  <si>
+    <t>Ilce Alves Rocha Perdigão</t>
+  </si>
+  <si>
+    <t>https://www.bombeiros.mg.gov.br/</t>
+  </si>
+  <si>
+    <t>https://www.bdmg.mg.gov.br/</t>
+  </si>
+  <si>
+    <t>https://cge.mg.gov.br/</t>
+  </si>
+  <si>
+    <t>Matheus Guimarães Novais</t>
+  </si>
+  <si>
+    <t>https://www.emater.mg.gov.br/</t>
+  </si>
+  <si>
+    <t>https://www.epamig.br/</t>
+  </si>
+  <si>
+    <t>http://www.faop.mg.gov.br/</t>
+  </si>
+  <si>
+    <t>Coronel Jordana de Oliveira Filgueiras Daldegan</t>
+  </si>
+  <si>
+    <t>Kelly Nogueira Guerra</t>
+  </si>
+  <si>
+    <t>Gleison Cunha Soares</t>
+  </si>
+  <si>
+    <t>Letícia Capistrano Campos</t>
+  </si>
+  <si>
+    <t>Paulo Roberto Meireles do Nascimento</t>
+  </si>
+  <si>
+    <t>Coronel Rodrigo de Faria Mendes</t>
+  </si>
+  <si>
+    <t>https://www.ima.mg.gov.br/</t>
+  </si>
+  <si>
+    <t>https://fcs.mg.gov.br/</t>
+  </si>
+  <si>
+    <t>https://www.iepha.mg.gov.br/</t>
+  </si>
+  <si>
+    <t>https://fapemig.br/</t>
+  </si>
+  <si>
+    <t>https://www.mgipar.com.br/</t>
+  </si>
+  <si>
+    <t>Letícia Baptista Gamboge Reis</t>
+  </si>
+  <si>
+    <t>https://www.cultura.mg.gov.br/</t>
+  </si>
+  <si>
+    <t>Bárbara Barros Botega</t>
+  </si>
+  <si>
+    <t>https://www.casacivil.mg.gov.br/</t>
+  </si>
+  <si>
+    <t>https://www.mg.gov.br/agricultura</t>
+  </si>
+  <si>
+    <t>Rossieli Soares da Silva</t>
+  </si>
+  <si>
+    <t>Lyssandro Norton Siqueira</t>
+  </si>
+  <si>
+    <t>Secretaria Geral do Estado de Minas Gerais</t>
   </si>
 </sst>
 </file>
@@ -1724,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1734,10 +1726,11 @@
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.25" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="80.25" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="31.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1754,106 +1747,106 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="F2" t="s">
-        <v>358</v>
+        <v>281</v>
       </c>
       <c r="G2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>276</v>
+        <v>403</v>
+      </c>
+      <c r="F3" t="s">
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>274</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.5">
@@ -1861,1405 +1854,1411 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="G5" t="s">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>414</v>
-      </c>
-      <c r="F6" t="s">
-        <v>295</v>
+        <v>323</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="G7" t="s">
-        <v>305</v>
+        <v>379</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>416</v>
+        <v>326</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="G8" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G9" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G10" t="s">
-        <v>262</v>
+        <v>389</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="F11" t="s">
-        <v>386</v>
+        <v>247</v>
       </c>
       <c r="G11" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>384</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="F12" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="G12" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>172</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>254</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="F13" t="s">
-        <v>381</v>
+        <v>229</v>
       </c>
       <c r="G13" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="F14" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="G14" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F15" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="G15" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>256</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="F16" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="G17" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="F18" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="G18" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>345</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>407</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>378</v>
+        <v>412</v>
+      </c>
+      <c r="F19" t="s">
+        <v>254</v>
       </c>
       <c r="G19" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>377</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
       <c r="E20" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F20" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="G20" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>259</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="G21" t="s">
-        <v>252</v>
+        <v>392</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="28.5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>239</v>
+        <v>321</v>
+      </c>
+      <c r="F22" t="s">
+        <v>268</v>
       </c>
       <c r="G22" t="s">
-        <v>238</v>
+        <v>372</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>236</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>413</v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
+        <v>367</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>418</v>
+        <v>265</v>
       </c>
       <c r="F24" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>397</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>374</v>
-      </c>
-      <c r="F25" t="s">
-        <v>373</v>
+        <v>264</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>376</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>247</v>
+        <v>261</v>
+      </c>
+      <c r="F26" t="s">
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>248</v>
+        <v>378</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="28.5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>243</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>244</v>
+        <v>259</v>
+      </c>
+      <c r="F27" t="s">
+        <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>347</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" t="s">
-        <v>190</v>
+        <v>348</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>33</v>
+      <c r="A29" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>374</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>222</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>220</v>
+        <v>316</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="G30" t="s">
-        <v>221</v>
+        <v>381</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="F31" t="s">
-        <v>368</v>
+        <v>276</v>
       </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>349</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>366</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G32" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="28.5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>422</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>244</v>
+        <v>331</v>
+      </c>
+      <c r="F33" t="s">
+        <v>221</v>
       </c>
       <c r="G33" t="s">
-        <v>277</v>
+        <v>388</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>423</v>
-      </c>
-      <c r="F34" t="s">
-        <v>281</v>
+        <v>217</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="G34" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="28.5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>405</v>
+        <v>216</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="G35" t="s">
-        <v>427</v>
+        <v>357</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="28.5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>410</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>161</v>
+        <v>416</v>
+      </c>
+      <c r="F36" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" t="s">
+        <v>358</v>
+      </c>
+      <c r="H36" t="s">
+        <v>184</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>364</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>361</v>
-      </c>
-      <c r="F37" t="s">
-        <v>362</v>
+        <v>414</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="G37" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>360</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>403</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
-        <v>397</v>
+        <v>213</v>
+      </c>
+      <c r="G38" t="s">
+        <v>375</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>370</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>371</v>
+        <v>209</v>
       </c>
       <c r="G39" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>369</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>389</v>
+        <v>318</v>
       </c>
       <c r="F40" t="s">
-        <v>390</v>
-      </c>
-      <c r="G40" t="s">
-        <v>391</v>
+        <v>203</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>388</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F41" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G41" t="s">
-        <v>217</v>
+        <v>359</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>215</v>
+        <v>333</v>
+      </c>
+      <c r="F42" t="s">
+        <v>238</v>
       </c>
       <c r="G42" t="s">
-        <v>214</v>
-      </c>
-      <c r="H42" t="s">
-        <v>149</v>
+        <v>362</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>329</v>
-      </c>
-      <c r="F43" t="s">
-        <v>330</v>
+        <v>332</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="G43" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="28.5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="G44" t="s">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="F45" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="G45" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>428</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="F46" t="s">
-        <v>397</v>
+        <v>215</v>
+      </c>
+      <c r="G46" t="s">
+        <v>271</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>395</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>421</v>
-      </c>
-      <c r="F47" t="s">
-        <v>251</v>
+        <v>310</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="G47" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>282</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
         <v>92</v>
       </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="F48" t="s">
-        <v>242</v>
-      </c>
-      <c r="G48" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>424</v>
+        <v>307</v>
       </c>
       <c r="F49" t="s">
-        <v>298</v>
-      </c>
-      <c r="G49" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="G50" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>201</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>352</v>
-      </c>
-      <c r="F51" t="s">
-        <v>261</v>
+        <v>335</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="G51" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>197</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>398</v>
+        <v>303</v>
       </c>
       <c r="F52" t="s">
-        <v>397</v>
+        <v>304</v>
+      </c>
+      <c r="G52" t="s">
+        <v>365</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="F53" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="G53" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3267,422 +3266,399 @@
         <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>392</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>393</v>
+        <v>299</v>
+      </c>
+      <c r="F54" t="s">
+        <v>298</v>
       </c>
       <c r="G54" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>417</v>
-      </c>
-      <c r="F55" t="s">
-        <v>290</v>
+        <v>317</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="G55" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>419</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G56" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>411</v>
+        <v>290</v>
       </c>
       <c r="F57" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="G57" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F58" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="G58" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>409</v>
-      </c>
-      <c r="F59" t="s">
-        <v>337</v>
-      </c>
-      <c r="G59" t="s">
-        <v>338</v>
+        <v>320</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="28.5">
-      <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F60" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="G60" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="F61" t="s">
-        <v>234</v>
-      </c>
-      <c r="G61" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>340</v>
+        <v>199</v>
       </c>
       <c r="F62" t="s">
-        <v>342</v>
+        <v>211</v>
       </c>
       <c r="G62" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>430</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>425</v>
+        <v>195</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="G63" t="s">
-        <v>426</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>138</v>
+        <v>386</v>
+      </c>
+      <c r="H63" t="s">
+        <v>143</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>429</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1">
     <sortState ref="A2:I63">
-      <sortCondition ref="I1"/>
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H38" r:id="rId1"/>
-    <hyperlink ref="H50" r:id="rId2"/>
-    <hyperlink ref="H63" r:id="rId3"/>
-    <hyperlink ref="H60" r:id="rId4"/>
-    <hyperlink ref="H59" r:id="rId5"/>
-    <hyperlink ref="H57" r:id="rId6"/>
-    <hyperlink ref="H54" r:id="rId7"/>
-    <hyperlink ref="H24" r:id="rId8"/>
-    <hyperlink ref="H46" r:id="rId9"/>
-    <hyperlink ref="H52" r:id="rId10"/>
-    <hyperlink ref="H61" r:id="rId11"/>
-    <hyperlink ref="H56" r:id="rId12"/>
-    <hyperlink ref="H55" r:id="rId13"/>
-    <hyperlink ref="H45" r:id="rId14"/>
-    <hyperlink ref="H14" r:id="rId15"/>
-    <hyperlink ref="H11" r:id="rId16"/>
-    <hyperlink ref="H43" r:id="rId17"/>
-    <hyperlink ref="H21" r:id="rId18"/>
-    <hyperlink ref="H40" r:id="rId19"/>
-    <hyperlink ref="H30" r:id="rId20"/>
-    <hyperlink ref="H29" r:id="rId21"/>
-    <hyperlink ref="H58" r:id="rId22"/>
+    <hyperlink ref="H61" r:id="rId1"/>
+    <hyperlink ref="H47" r:id="rId2"/>
+    <hyperlink ref="H51" r:id="rId3"/>
+    <hyperlink ref="H29" r:id="rId4"/>
+    <hyperlink ref="H20" r:id="rId5"/>
+    <hyperlink ref="H22" r:id="rId6"/>
+    <hyperlink ref="H50" r:id="rId7"/>
+    <hyperlink ref="H17" r:id="rId8"/>
+    <hyperlink ref="H49" r:id="rId9"/>
+    <hyperlink ref="H48" r:id="rId10"/>
+    <hyperlink ref="H38" r:id="rId11"/>
+    <hyperlink ref="H16" r:id="rId12"/>
+    <hyperlink ref="H15" r:id="rId13"/>
+    <hyperlink ref="H24" r:id="rId14"/>
+    <hyperlink ref="H27" r:id="rId15"/>
+    <hyperlink ref="H53" r:id="rId16"/>
+    <hyperlink ref="H23" r:id="rId17"/>
+    <hyperlink ref="H32" r:id="rId18"/>
+    <hyperlink ref="H52" r:id="rId19"/>
+    <hyperlink ref="H41" r:id="rId20"/>
+    <hyperlink ref="H40" r:id="rId21"/>
+    <hyperlink ref="H21" r:id="rId22"/>
     <hyperlink ref="H9" r:id="rId23"/>
-    <hyperlink ref="H16" r:id="rId24"/>
-    <hyperlink ref="H36" r:id="rId25"/>
-    <hyperlink ref="H22" r:id="rId26"/>
-    <hyperlink ref="H44" r:id="rId27"/>
+    <hyperlink ref="H30" r:id="rId24"/>
+    <hyperlink ref="H59" r:id="rId25"/>
+    <hyperlink ref="H37" r:id="rId26"/>
+    <hyperlink ref="H25" r:id="rId27"/>
     <hyperlink ref="H5" r:id="rId28"/>
-    <hyperlink ref="H31" r:id="rId29"/>
-    <hyperlink ref="H39" r:id="rId30"/>
-    <hyperlink ref="H32" r:id="rId31"/>
-    <hyperlink ref="H10" r:id="rId32"/>
-    <hyperlink ref="H25" r:id="rId33"/>
-    <hyperlink ref="H19" r:id="rId34"/>
-    <hyperlink ref="H13" r:id="rId35"/>
-    <hyperlink ref="H12" r:id="rId36"/>
-    <hyperlink ref="H48" r:id="rId37"/>
-    <hyperlink ref="H62" r:id="rId38"/>
-    <hyperlink ref="H18" r:id="rId39"/>
-    <hyperlink ref="H51" r:id="rId40"/>
-    <hyperlink ref="H35" r:id="rId41"/>
-    <hyperlink ref="H53" r:id="rId42"/>
+    <hyperlink ref="H58" r:id="rId29"/>
+    <hyperlink ref="H57" r:id="rId30"/>
+    <hyperlink ref="H3" r:id="rId31"/>
+    <hyperlink ref="H14" r:id="rId32"/>
+    <hyperlink ref="H56" r:id="rId33"/>
+    <hyperlink ref="H55" r:id="rId34"/>
+    <hyperlink ref="H54" r:id="rId35"/>
+    <hyperlink ref="H18" r:id="rId36"/>
+    <hyperlink ref="H46" r:id="rId37"/>
+    <hyperlink ref="H45" r:id="rId38"/>
+    <hyperlink ref="H31" r:id="rId39"/>
+    <hyperlink ref="H13" r:id="rId40"/>
+    <hyperlink ref="H44" r:id="rId41"/>
+    <hyperlink ref="H12" r:id="rId42"/>
     <hyperlink ref="H2" r:id="rId43"/>
-    <hyperlink ref="H15" r:id="rId44"/>
-    <hyperlink ref="H17" r:id="rId45"/>
-    <hyperlink ref="H20" r:id="rId46"/>
-    <hyperlink ref="H37" r:id="rId47"/>
-    <hyperlink ref="H26" r:id="rId48"/>
-    <hyperlink ref="H27" r:id="rId49"/>
-    <hyperlink ref="H41" r:id="rId50"/>
-    <hyperlink ref="H49" r:id="rId51" location="texto"/>
-    <hyperlink ref="H34" r:id="rId52"/>
-    <hyperlink ref="H33" r:id="rId53"/>
-    <hyperlink ref="H47" r:id="rId54"/>
-    <hyperlink ref="H23" r:id="rId55"/>
+    <hyperlink ref="H28" r:id="rId44"/>
+    <hyperlink ref="H26" r:id="rId45"/>
+    <hyperlink ref="H19" r:id="rId46"/>
+    <hyperlink ref="H60" r:id="rId47"/>
+    <hyperlink ref="H34" r:id="rId48"/>
+    <hyperlink ref="H35" r:id="rId49"/>
+    <hyperlink ref="H62" r:id="rId50"/>
+    <hyperlink ref="H10" r:id="rId51" location="texto"/>
+    <hyperlink ref="H42" r:id="rId52"/>
+    <hyperlink ref="H43" r:id="rId53"/>
+    <hyperlink ref="H33" r:id="rId54"/>
+    <hyperlink ref="H39" r:id="rId55"/>
     <hyperlink ref="H4" r:id="rId56"/>
     <hyperlink ref="H8" r:id="rId57"/>
-    <hyperlink ref="H6" r:id="rId58"/>
-    <hyperlink ref="H3" r:id="rId59"/>
+    <hyperlink ref="H11" r:id="rId58"/>
+    <hyperlink ref="H6" r:id="rId59"/>
     <hyperlink ref="H7" r:id="rId60"/>
-    <hyperlink ref="I51" r:id="rId61"/>
-    <hyperlink ref="I53" r:id="rId62" display="https://www.cge.mg.gov.br/"/>
-    <hyperlink ref="I48" r:id="rId63"/>
-    <hyperlink ref="I52" r:id="rId64"/>
-    <hyperlink ref="I50" r:id="rId65"/>
-    <hyperlink ref="I55" r:id="rId66"/>
-    <hyperlink ref="I56" r:id="rId67"/>
-    <hyperlink ref="I61" r:id="rId68"/>
-    <hyperlink ref="I54" r:id="rId69"/>
-    <hyperlink ref="I57" r:id="rId70"/>
-    <hyperlink ref="I59" r:id="rId71"/>
-    <hyperlink ref="I60" r:id="rId72"/>
-    <hyperlink ref="I30" r:id="rId73"/>
-    <hyperlink ref="I29" r:id="rId74"/>
-    <hyperlink ref="I23" r:id="rId75"/>
-    <hyperlink ref="I22" r:id="rId76"/>
-    <hyperlink ref="I28" r:id="rId77"/>
-    <hyperlink ref="I27" r:id="rId78"/>
-    <hyperlink ref="I26" r:id="rId79"/>
-    <hyperlink ref="I21" r:id="rId80"/>
-    <hyperlink ref="I10" r:id="rId81"/>
-    <hyperlink ref="I5" r:id="rId82"/>
-    <hyperlink ref="I4" r:id="rId83"/>
-    <hyperlink ref="I32" r:id="rId84"/>
-    <hyperlink ref="I3" r:id="rId85"/>
-    <hyperlink ref="I33" r:id="rId86" display="http://www.mgipar.com.br/"/>
-    <hyperlink ref="I34" r:id="rId87"/>
-    <hyperlink ref="I47" r:id="rId88"/>
-    <hyperlink ref="I24" r:id="rId89"/>
-    <hyperlink ref="I6" r:id="rId90"/>
-    <hyperlink ref="I49" r:id="rId91"/>
-    <hyperlink ref="I9" r:id="rId92"/>
-    <hyperlink ref="I8" r:id="rId93"/>
-    <hyperlink ref="I7" r:id="rId94"/>
-    <hyperlink ref="I20" r:id="rId95"/>
-    <hyperlink ref="I16" r:id="rId96"/>
-    <hyperlink ref="I15" r:id="rId97"/>
-    <hyperlink ref="I14" r:id="rId98"/>
-    <hyperlink ref="I17" r:id="rId99"/>
-    <hyperlink ref="I44" r:id="rId100"/>
-    <hyperlink ref="I58" r:id="rId101"/>
-    <hyperlink ref="I35" r:id="rId102"/>
-    <hyperlink ref="I18" r:id="rId103"/>
-    <hyperlink ref="I12" r:id="rId104"/>
-    <hyperlink ref="I2" r:id="rId105"/>
-    <hyperlink ref="I42" r:id="rId106" display="http://www.loteriamineira.mg.gov.br"/>
-    <hyperlink ref="I41" r:id="rId107" display="http://www.jucemg.mg.gov.br"/>
-    <hyperlink ref="I43" r:id="rId108" display="http://www.gabinetemilitar.mg.gov.br"/>
-    <hyperlink ref="I37" r:id="rId109"/>
-    <hyperlink ref="I36" r:id="rId110"/>
-    <hyperlink ref="I31" r:id="rId111"/>
-    <hyperlink ref="I39" r:id="rId112"/>
-    <hyperlink ref="I25" r:id="rId113"/>
-    <hyperlink ref="I19" r:id="rId114"/>
-    <hyperlink ref="I13" r:id="rId115"/>
-    <hyperlink ref="I11" r:id="rId116"/>
-    <hyperlink ref="I40" r:id="rId117"/>
-    <hyperlink ref="I46" r:id="rId118"/>
-    <hyperlink ref="I38" r:id="rId119"/>
-    <hyperlink ref="I45" r:id="rId120"/>
-    <hyperlink ref="I63" r:id="rId121"/>
-    <hyperlink ref="I62" r:id="rId122"/>
+    <hyperlink ref="I46" r:id="rId61"/>
+    <hyperlink ref="I41" r:id="rId62"/>
+    <hyperlink ref="I40" r:id="rId63"/>
+    <hyperlink ref="I39" r:id="rId64"/>
+    <hyperlink ref="I37" r:id="rId65"/>
+    <hyperlink ref="I36" r:id="rId66"/>
+    <hyperlink ref="I35" r:id="rId67"/>
+    <hyperlink ref="I34" r:id="rId68"/>
+    <hyperlink ref="I32" r:id="rId69"/>
+    <hyperlink ref="I14" r:id="rId70"/>
+    <hyperlink ref="I5" r:id="rId71"/>
+    <hyperlink ref="I4" r:id="rId72"/>
+    <hyperlink ref="I42" r:id="rId73"/>
+    <hyperlink ref="I33" r:id="rId74"/>
+    <hyperlink ref="I17" r:id="rId75"/>
+    <hyperlink ref="I11" r:id="rId76"/>
+    <hyperlink ref="I10" r:id="rId77"/>
+    <hyperlink ref="I9" r:id="rId78"/>
+    <hyperlink ref="I8" r:id="rId79"/>
+    <hyperlink ref="I7" r:id="rId80"/>
+    <hyperlink ref="I19" r:id="rId81"/>
+    <hyperlink ref="I30" r:id="rId82"/>
+    <hyperlink ref="I28" r:id="rId83"/>
+    <hyperlink ref="I27" r:id="rId84"/>
+    <hyperlink ref="I26" r:id="rId85"/>
+    <hyperlink ref="I25" r:id="rId86"/>
+    <hyperlink ref="I44" r:id="rId87"/>
+    <hyperlink ref="I31" r:id="rId88"/>
+    <hyperlink ref="I18" r:id="rId89"/>
+    <hyperlink ref="I2" r:id="rId90"/>
+    <hyperlink ref="I63" r:id="rId91" display="http://www.loteriamineira.mg.gov.br"/>
+    <hyperlink ref="I62" r:id="rId92" display="http://www.jucemg.mg.gov.br"/>
+    <hyperlink ref="I23" r:id="rId93" display="http://www.gabinetemilitar.mg.gov.br"/>
+    <hyperlink ref="I60" r:id="rId94"/>
+    <hyperlink ref="I59" r:id="rId95"/>
+    <hyperlink ref="I58" r:id="rId96"/>
+    <hyperlink ref="I57" r:id="rId97"/>
+    <hyperlink ref="I56" r:id="rId98"/>
+    <hyperlink ref="I55" r:id="rId99"/>
+    <hyperlink ref="I54" r:id="rId100"/>
+    <hyperlink ref="I53" r:id="rId101"/>
+    <hyperlink ref="I52" r:id="rId102"/>
+    <hyperlink ref="I61" r:id="rId103"/>
+    <hyperlink ref="I24" r:id="rId104"/>
+    <hyperlink ref="I45" r:id="rId105"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
 </worksheet>
 </file>